--- a/hackathon.xlsx
+++ b/hackathon.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\360task\360Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9540" windowHeight="3930" activeTab="4"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="9540" windowHeight="3930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Declare Rule" sheetId="5" r:id="rId5"/>
     <sheet name="Glossary" sheetId="6" r:id="rId6"/>
     <sheet name="studios" sheetId="8" r:id="rId7"/>
+    <sheet name="Icons" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc296635645" localSheetId="3">'Elaborate Story'!$K$9</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>HP Hackathon 1 Sept 2015</t>
   </si>
@@ -848,12 +849,30 @@
       <t>.</t>
     </r>
   </si>
+  <si>
+    <t>Integration Studio - Database connections</t>
+  </si>
+  <si>
+    <t>SAAS</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Connectors</t>
+  </si>
+  <si>
+    <t>SOAP or REST</t>
+  </si>
+  <si>
+    <t>Code reuse</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -958,6 +977,27 @@
       <name val="HP Simplified"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -979,7 +1019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1008,14 +1048,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1180,6 +1223,82 @@
         <a:xfrm>
           <a:off x="0" y="12954000"/>
           <a:ext cx="12171428" cy="6466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>351771</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>8888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="29079825"/>
+          <a:ext cx="5228571" cy="5095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>580419</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>180333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="29022675"/>
+          <a:ext cx="4847619" cy="5133333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1588,6 +1707,277 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>522667</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>142311</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5153025"/>
+          <a:ext cx="9666667" cy="4514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>513143</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>180405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10077450"/>
+          <a:ext cx="9657143" cy="4561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>132495</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>266143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10363200" y="571500"/>
+          <a:ext cx="6838095" cy="4457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>46857</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>132839</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6142857" cy="4085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>465981</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="0"/>
+          <a:ext cx="5952381" cy="2428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>580700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>189749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="2638425"/>
+          <a:ext cx="2600000" cy="6009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>247314</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>18556</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="2667000"/>
+          <a:ext cx="2685714" cy="3952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1860,197 +2250,197 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="15">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="15">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="15">
       <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="15">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -2068,13 +2458,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A135" sqref="A135:A148"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K146" sqref="K146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2082,153 +2472,153 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" ht="20.25">
       <c r="A105" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" ht="20.25">
       <c r="A106" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" ht="15.75">
       <c r="A107" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" ht="15.75">
       <c r="A109" s="3"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" ht="15.75">
       <c r="A110" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" ht="15.75">
       <c r="A111" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" ht="15.75">
       <c r="A113" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" ht="15.75">
       <c r="A115" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" ht="15.75">
       <c r="A117" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" ht="15.75">
       <c r="A119" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" ht="17.25">
       <c r="A122" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" ht="15.75">
       <c r="A124" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" ht="17.25">
       <c r="A126" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" ht="15.75">
       <c r="A128" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" ht="23.25">
       <c r="A130" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" ht="15.75">
       <c r="A132" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" ht="15.75">
       <c r="A133" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" ht="23.25">
       <c r="A135" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" ht="15.75">
       <c r="A137" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1">
       <c r="A138" s="9"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" ht="15.75">
       <c r="A139" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" ht="15.75">
       <c r="A140" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" ht="15.75">
       <c r="A141" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" ht="15.75">
       <c r="A142" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" ht="15.75">
       <c r="A143" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" ht="15.75">
       <c r="A144" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" ht="15.75">
       <c r="A145" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" ht="15.75">
       <c r="A146" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" ht="15.75">
       <c r="A147" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" ht="15.75">
       <c r="A148" s="10" t="s">
         <v>66</v>
       </c>
@@ -2245,7 +2635,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2255,803 +2645,803 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:22" ht="18.75">
+      <c r="A9" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
       <c r="K9" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="12" t="s">
+    <row r="10" spans="1:22">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3067,54 +3457,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="20.25">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:1" ht="20.25">
+      <c r="A2" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:1" ht="19.5">
+      <c r="A3" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:1" ht="20.25">
+      <c r="A4" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:1" ht="19.5">
+      <c r="A5" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:1" ht="20.25">
+      <c r="A6" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:1" ht="19.5">
+      <c r="A7" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:1" ht="19.5">
+      <c r="A8" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:1" ht="20.25">
+      <c r="A9" s="12" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3132,7 +3522,7 @@
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3141,15 +3531,59 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AD26" sqref="AD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="26" spans="1:1" ht="27">
+      <c r="A26" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="P16:X38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V38" sqref="V38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="16" spans="16:24" ht="25.5">
+      <c r="P16" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="X16" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="16:24" ht="27">
+      <c r="P27" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="X27" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="16:16" ht="25.5">
+      <c r="P38" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>